--- a/test.xlsx
+++ b/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>nombre</t>
   </si>
@@ -25,6 +25,21 @@
   </si>
   <si>
     <t>few</t>
+  </si>
+  <si>
+    <t>esneyder</t>
+  </si>
+  <si>
+    <t>nombre2</t>
+  </si>
+  <si>
+    <t>cedula2</t>
+  </si>
+  <si>
+    <t>few2</t>
+  </si>
+  <si>
+    <t>esneyder2</t>
   </si>
 </sst>
 </file>
@@ -363,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,6 +402,14 @@
         <v>2323</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1077470550</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -394,12 +417,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>1077470550</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -380,8 +380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -399,7 +399,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2323</v>
+        <v>122232</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -419,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,7 +438,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>2323</v>
+        <v>232323</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -446,7 +446,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>1077470550</v>
+        <v>10774750</v>
       </c>
     </row>
   </sheetData>
